--- a/Reports/Replication_Log_Referee_Template.xlsx
+++ b/Reports/Replication_Log_Referee_Template.xlsx
@@ -24,266 +24,253 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
-  <si>
-    <t>Replication Game Metadata</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>Paper Title</t>
-  </si>
-  <si>
-    <t>DOI</t>
-  </si>
-  <si>
-    <t>Journal</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>Primary discipline</t>
-  </si>
-  <si>
-    <t>Task discipline</t>
-  </si>
-  <si>
-    <t>Out-of-discipline (Yes/No)</t>
-  </si>
-  <si>
-    <t>Fill once. Other sheets refer to these fields.</t>
-  </si>
-  <si>
-    <t>Coding Errors Log</t>
-  </si>
-  <si>
-    <t>Entry ID</t>
-  </si>
-  <si>
-    <t>Time identified (ISO)</t>
-  </si>
-  <si>
-    <t>Affected element (Table/Figure/Spec)</t>
-  </si>
-  <si>
-    <t>Error title</t>
-  </si>
-  <si>
-    <t>Why this is a coding error</t>
-  </si>
-  <si>
-    <t>Evidence reference (file:line or cell)</t>
-  </si>
-  <si>
-    <t>Classification (Minor/Major)</t>
-  </si>
-  <si>
-    <t>Computational Reproducibility</t>
-  </si>
-  <si>
-    <t>Reproducibility achieved (Yes/No)</t>
-  </si>
-  <si>
-    <t>Time achieved (ISO)</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Robustness Checks, maximum two</t>
-  </si>
-  <si>
-    <t>Check 1</t>
-  </si>
-  <si>
-    <t>Check 2</t>
-  </si>
-  <si>
-    <t>Why appropriate</t>
-  </si>
-  <si>
-    <t>Target element</t>
-  </si>
-  <si>
-    <t>Specification change</t>
-  </si>
-  <si>
-    <t>Sample/Filter change</t>
-  </si>
-  <si>
-    <t>Original coefficient</t>
-  </si>
-  <si>
-    <t>Original p-value</t>
-  </si>
-  <si>
-    <t>Check coefficient</t>
-  </si>
-  <si>
-    <t>Check p-value</t>
-  </si>
-  <si>
-    <t>Outcome vs main</t>
-  </si>
-  <si>
-    <t>Enter at most two checks. Do not add rows.</t>
-  </si>
-  <si>
-    <t>Referee Report, aligned to PAP rubric</t>
-  </si>
-  <si>
-    <t>Dimension</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Score or Value</t>
-  </si>
-  <si>
-    <t>Justification</t>
-  </si>
-  <si>
-    <t>Appropriateness</t>
-  </si>
-  <si>
-    <t>Binary: Appropriate/Not appropriate</t>
-  </si>
-  <si>
-    <t>Summary accuracy</t>
-  </si>
-  <si>
-    <t>0-5</t>
-  </si>
-  <si>
-    <t>Literature placement</t>
-  </si>
-  <si>
-    <t>Weakness diagnosis</t>
-  </si>
-  <si>
-    <t>Recommendations</t>
-  </si>
-  <si>
-    <t>Clarity</t>
-  </si>
-  <si>
-    <t>Overall</t>
-  </si>
-  <si>
-    <t>Section</t>
-  </si>
-  <si>
-    <t>What to cover</t>
-  </si>
-  <si>
-    <t>Tip</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>Question, setting, methods, main results.</t>
-  </si>
-  <si>
-    <t>Keep it factual and brief.</t>
-  </si>
-  <si>
-    <t>Data and Code Availability</t>
-  </si>
-  <si>
-    <t>Completeness, documentation, executability.</t>
-  </si>
-  <si>
-    <t>Link to repo or archive.</t>
-  </si>
-  <si>
-    <t>Design and Identification</t>
-  </si>
-  <si>
-    <t>Randomization, balance, attrition, timeline checks.</t>
-  </si>
-  <si>
-    <t>State any concerns.</t>
-  </si>
-  <si>
-    <t>What reproduced, tolerances, discrepancies, time achieved.</t>
-  </si>
-  <si>
-    <t>Reference outputs.</t>
-  </si>
-  <si>
-    <t>Robustness</t>
-  </si>
-  <si>
-    <t>Two checks, rationale, results vs main.</t>
-  </si>
-  <si>
-    <t>Summarize both checks succinctly.</t>
-  </si>
-  <si>
-    <t>Documentation Quality</t>
-  </si>
-  <si>
-    <t>Code clarity, structure, version control.</t>
-  </si>
-  <si>
-    <t>Concrete suggestions.</t>
-  </si>
-  <si>
-    <t>Ethical and Transparency</t>
-  </si>
-  <si>
-    <t>Consent, preregistration, registry.</t>
-  </si>
-  <si>
-    <t>Include identifiers if available.</t>
-  </si>
-  <si>
-    <t>Overall Assessment</t>
-  </si>
-  <si>
-    <t>Verdict and recommendations to authors/editors.</t>
-  </si>
-  <si>
-    <t>One short paragraph.</t>
-  </si>
-  <si>
-    <t>Paste-ready Referee Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFEREE REPORT
+<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
+  <ns0:si>
+    <ns0:t>Replication Game Metadata</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Person</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Paper Title</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>DOI</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Journal</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Software</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Event</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Primary discipline</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Task discipline</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Out-of-discipline (Yes/No)</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Fill once. Other sheets refer to these fields.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Coding Errors Log</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Entry ID</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Time identified (ISO)</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Affected element (Table/Figure/Spec)</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Error title</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Why this is a coding error</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Evidence reference (file:line or cell)</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Classification (Minor/Major)</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Computational Reproducibility</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Reproducibility achieved (Yes/No)</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Time achieved (ISO)</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Notes</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Robustness Checks, maximum two</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Check 1</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Check 2</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Why appropriate</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Target element</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Specification change</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Sample/Filter change</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Original coefficient</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Original p-value</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Check coefficient</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Check p-value</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Outcome vs main</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Enter at most two checks. Do not add rows.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Referee Report, aligned to PAP rubric</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Dimension</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Type</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Score or Value</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Justification</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Appropriateness</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Binary: Appropriate/Not appropriate</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Summary accuracy</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>0-5</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Literature placement</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Weakness diagnosis</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Recommendations</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Clarity</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Overall</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Section</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>What to cover</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Tip</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Summary</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Question, setting, methods, main results.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Keep it factual and brief.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Narrative scope (&lt;= 1,000 words)</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Keep the referee narrative within 1,000 words; omit dedicated sections on data/code availability, computational reproducibility, and documentation.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Fold any blockers into the summary or recommendations instead of standalone sections.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Design and Identification</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Randomization, balance, attrition, timeline checks.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>State any concerns.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>What reproduced, tolerances, discrepancies, time achieved.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Reference outputs.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Robustness</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Two checks, rationale, results vs main.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Summarize both checks succinctly.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Documentation Quality</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Code clarity, structure, version control.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Concrete suggestions.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Ethical and Transparency</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Consent, preregistration, registry.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Include identifiers if available.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Overall Assessment</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Verdict and recommendations to authors/editors.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>One short paragraph.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Paste-ready Referee Report (&lt;= 1,000 words)</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">REFEREE REPORT (&lt;= 1,000 words)
 Summary:
-- 
-Data and Code Availability:
 - 
 Design and Identification:
 - 
-Computational Reproducibility:
-- Achieved: [Yes/No]
-- Time achieved: [ISO time]
-- Notes on deviations: 
 Robustness:
-- Check 1 target and rationale: 
-- Original coef, p-value: 
-- Check coef, p-value, outcome vs main: 
-- Check 2 target and rationale: 
-- Original coef, p-value: 
-- Check coef, p-value, outcome vs main: 
-Documentation Quality:
 - 
 Ethical and Transparency:
 - 
 Overall Assessment:
 - 
-</t>
-  </si>
-</sst>
+</ns0:t>
+  </ns0:si>
+</ns0:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1346,757 +1333,288 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Referee Report (PAP rubric)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dimension</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Score or Value</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Justification</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Appropriateness</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Binary: Appropriate/Not appropriate</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Summary accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Literature placement</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Weakness diagnosis</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Recommendations</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Clarity</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Overall</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11"/>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Justifications (2-4 sentences each)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>What to cover</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Tip</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Summary</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Question, setting, methods, main results.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Keep it factual and brief.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Narrative scope (≤ 1,000 words)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Stay under 1,000 words; fold data/code or reproducibility blockers into the summary or recommendations.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>No standalone code-quality sections.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Design and Identification</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Randomization, balance, attrition, timeline checks.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>State any concerns.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Robustness</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Two checks, rationale, results vs. main.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Summarize both checks succinctly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ethical and Transparency</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Consent, preregistration, registry.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Include identifiers if available.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Overall Assessment</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Verdict and recommendations to authors/editors.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>One short paragraph.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20"/>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Paste-ready Referee Report (≤ 1,000 words)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFEREE REPORT (≤ 1,000 words)
+Summary:
+- 
+Design and Identification:
+- 
+Robustness:
+- 
+Ethical and Transparency:
+- 
+Overall Assessment:
+- </t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A25:K64"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A13:C22">
-    <cfRule type="notContainsErrors" dxfId="1" priority="2">
-      <formula>NOT(ISERROR(A13))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:D11">
-    <cfRule type="notContainsErrors" dxfId="0" priority="1">
-      <formula>NOT(ISERROR(A3))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0400-000000000000}">
-      <formula1>"Appropriate,Not appropriate"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C11" xr:uid="{00000000-0002-0000-0400-000001000000}">
-      <formula1>0</formula1>
-      <formula2>5</formula2>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>